--- a/biology/Histoire de la zoologie et de la botanique/Gustav_Radde/Gustav_Radde.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustav_Radde/Gustav_Radde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Ferdinand Richard Radde, né le 27 novembre 1831 à Dantzig et mort le 2 mars 1903 à Tiflis (actuellement Tbilissi), est un naturaliste et un explorateur prussien qui se mit au service de l'Empire russe.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un instituteur, son éducation est assez sommaire. Il commence à travailler auprès d'un apothicaire. Il commence alors à s'intéresser à l'histoire naturelle. En 1852, débute alors sa carrière comme naturaliste. Il passe deux ans en Crimée avec le botaniste Christian von Steven (1781-1863), collectant tant des animaux que des végétaux. Il fait plusieurs expéditions scientifiques dans le sud de la Russie avec Johann Friedrich von Brandt (1802-1879) et Karl Ernst von Baer (1792-1876). Il prend part à l'expédition en Sibérie dirigée par l'astronome Ludwig Schwarz (de). À cette occasion, il recueille des informations inédites sur le lac Baïkal: l'amplitude de ses variations saisonnières en liaison avec le régime glaciaire et nival des cours d'eau de l'Ouest du bassin.
-Il s'installe à Tiflis en 1864 et y fonde en 1867 le musée du Caucase[1]. Il explore la même année la région autour du mont Erebus. Il y a récolte de nombreuses plantes et étudies les langues, les coutumes et les ballades des peuples qui s'y trouvent. Il fonde à Tiflis un muséum et une bibliothèque où il expose ses découvertes. Radde explore encore les côtes de la mer Noire et de la mer Caspienne. En 1895, il visite l'Inde et le Japon aux côtés du grand-duc Michel. Deux ans plus tard, il est le naturaliste officiel accompagnant la famille impériale lors d'une visite en Afrique du Nord.
+Il s'installe à Tiflis en 1864 et y fonde en 1867 le musée du Caucase. Il explore la même année la région autour du mont Erebus. Il y a récolte de nombreuses plantes et étudies les langues, les coutumes et les ballades des peuples qui s'y trouvent. Il fonde à Tiflis un muséum et une bibliothèque où il expose ses découvertes. Radde explore encore les côtes de la mer Noire et de la mer Caspienne. En 1895, il visite l'Inde et le Japon aux côtés du grand-duc Michel. Deux ans plus tard, il est le naturaliste officiel accompagnant la famille impériale lors d'une visite en Afrique du Nord.
 Parmi ses publications, il faut citer Ornis Caucasica (1884) et Reisen im Suden von Ost-Sibirien in den Jahren 1855-1859 (1862-1863). Les organisateurs du premier Congrès international d'ornithologie, qui se tient à Vienne en 1884, lui font l'honneur d'être choisi comme président. Il est membre étranger de la British Ornithologists' Union et de la Société zoologique de Londres. La Société impériale de géographie lui décerne la médaille Constantin en 1899.
 Plusieurs animaux lui ont été dédiés, notamment l'Accenteur de Radde (Prunella ocularis), une grenouille de Sibérie (Bufo raddei) et un lézard du Moyen-Orient (Phrynocephalus raddei).
 </t>
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ethnographie der Krimtataren. 1874
 Vier Vorträge über den Kaukasus: Gehalten im Winter 1873/4 in den grösseren Städten Deutschlands. Perthes, Gotha 1874
